--- a/doc/ue_IAssetRegistry.xlsx
+++ b/doc/ue_IAssetRegistry.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14129965-4BA0-45CE-946C-32366FAD8E2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,29 +24,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>virtual bool HasAssets(const FName PackagePath, const bool bRecursive = false) const = 0;</t>
+  </si>
+  <si>
+    <t>virtual bool GetAssetsByPath(FName PackagePath, TArray&lt;FAssetData&gt;&amp; OutAssetData, bool bRecursive = false, bool bIncludeOnlyOnDiskAssets = false) const = 0;</t>
+  </si>
+  <si>
+    <t>查看资源依赖的其他所有资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>IAssetRegistry</t>
-  </si>
-  <si>
-    <t>virtual bool HasAssets(const FName PackagePath, const bool bRecursive = false) const = 0;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>virtual bool GetAssetsByPackageName(FName PackageName, TArray&lt;FAssetData&gt;&amp; OutAssetData, bool bIncludeOnlyOnDiskAssets = false) const = 0;</t>
-  </si>
-  <si>
-    <t>virtual bool GetAssetsByPath(FName PackagePath, TArray&lt;FAssetData&gt;&amp; OutAssetData, bool bRecursive = false, bool bIncludeOnlyOnDiskAssets = false) const = 0;</t>
-  </si>
-  <si>
-    <t>查看资源依赖的其他所有资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>virtual bool GetDependencies(const FAssetIdentifier&amp; AssetIdentifier, TArray&lt;FAssetIdentifier&gt;&amp; OutDependencies, UE::AssetRegistry::EDependencyCategory Category = UE::AssetRegistry::EDependencyCategory::All, const UE::AssetRegistry::FDependencyQuery&amp; Flags = UE::AssetRegistry::FDependencyQuery()) const override;</t>
+  </si>
+  <si>
+    <t>获取其依赖的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取资源的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器下有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,6 +76,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -83,8 +106,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -364,38 +388,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
-        <v>4</v>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>2</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_IAssetRegistry.xlsx
+++ b/doc/ue_IAssetRegistry.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C499CA5-13D2-4C41-92CC-FECCA1187639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>virtual bool HasAssets(const FName PackagePath, const bool bRecursive = false) const = 0;</t>
   </si>
@@ -44,26 +46,68 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>获取其依赖的资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取资源的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑器下有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>virtual bool GetDependencies(const FAssetIdentifier&amp; AssetIdentifier, TArray&lt;FAssetIdentifier&gt;&amp; OutDependencies, UE::AssetRegistry::EDependencyCategory Category = UE::AssetRegistry::EDependencyCategory::All, const UE::AssetRegistry::FDependencyQuery&amp; Flags = UE::AssetRegistry::FDependencyQuery()) const override;</t>
-  </si>
-  <si>
-    <t>获取其依赖的资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获取资源的信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑器下有效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在非编辑器下面，GetDependencies永远都是返回空的，因为非编辑器下面其内部的CachedDependsNodes是空的，导致什么资源都查不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FAssetRegistryModule&amp; AssetModule = FModuleManager::Get().LoadModuleChecked&lt;FAssetRegistryModule&gt;(TEXT("AssetRegistry"));</t>
+  </si>
+  <si>
+    <t>IAssetRegistry&amp; registry = AssetModule.Get();</t>
+  </si>
+  <si>
+    <t>TArray&lt;FAssetIdentifier&gt; mylist;</t>
+  </si>
+  <si>
+    <t>registry.GetDependencies(FAssetIdentifier(TEXT("/Game/BigWorld/BigWorld2")), mylist);</t>
+  </si>
+  <si>
+    <t>TArray&lt;FAssetIdentifier&gt; alllist;</t>
+  </si>
+  <si>
+    <t>for (auto val : mylist)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>TArray&lt;FAssetIdentifier&gt; mylist2;</t>
+  </si>
+  <si>
+    <t>registry.GetDependencies(FAssetIdentifier(val.PackageName), mylist2);</t>
+  </si>
+  <si>
+    <t>alllist += mylist2;</t>
+  </si>
+  <si>
+    <t>}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,6 +127,15 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -106,9 +159,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -388,58 +442,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:C15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C5" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE042B6-9F32-4305-9F4B-9B6BA1FBD4B3}">
+  <dimension ref="C11:D24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P31" sqref="P31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="11" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_IAssetRegistry.xlsx
+++ b/doc/ue_IAssetRegistry.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C499CA5-13D2-4C41-92CC-FECCA1187639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29705054-48C3-4849-B05B-2ED28E1A931B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="文件夹下资源遍历" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>virtual bool HasAssets(const FName PackagePath, const bool bRecursive = false) const = 0;</t>
   </si>
@@ -101,6 +102,58 @@
   </si>
   <si>
     <t>}</t>
+  </si>
+  <si>
+    <t>bool UAssetRegistryImpl::GetAssetsByPath(FName PackagePath, TArray&lt;FAssetData&gt;&amp; OutAssetData, bool bRecursive, bool bIncludeOnlyOnDiskAssets) const</t>
+  </si>
+  <si>
+    <t>FARFilter Filter;</t>
+  </si>
+  <si>
+    <t>Filter.bRecursivePaths = bRecursive;</t>
+  </si>
+  <si>
+    <t>Filter.PackagePaths.Add(PackagePath);</t>
+  </si>
+  <si>
+    <t>Filter.bIncludeOnlyOnDiskAssets = bIncludeOnlyOnDiskAssets;</t>
+  </si>
+  <si>
+    <t>return GetAssets(Filter, OutAssetData);</t>
+  </si>
+  <si>
+    <t>TArray&lt;FAssetData&gt; LocalizedAssetDataArray;</t>
+  </si>
+  <si>
+    <t>bool bIncludeOnlyOnDiskAssets = !GIsEditor;</t>
+  </si>
+  <si>
+    <t>bool bRecursive = true;</t>
+  </si>
+  <si>
+    <t>AssetRegistry.GetAssetsByPath(*InLocalizedRoot, LocalizedAssetDataArray, bRecursive, bIncludeOnlyOnDiskAssets);</t>
+  </si>
+  <si>
+    <t>for (const FAssetData&amp; LocalizedAssetData : LocalizedAssetDataArray)</t>
+  </si>
+  <si>
+    <t>const FName SourcePackageName = *FPackageName::GetSourcePackagePath(LocalizedAssetData.PackageName.ToString());</t>
+  </si>
+  <si>
+    <t>遍历制定目录，获取所有的asset资源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遍历文件夹实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非编辑器模式也可以使用的接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -532,8 +585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE042B6-9F32-4305-9F4B-9B6BA1FBD4B3}">
   <dimension ref="C11:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P31" sqref="P31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -598,4 +651,111 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF1A5CE-9982-44CB-81DB-2D7B92F8A56B}">
+  <dimension ref="A2:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
+      <c r="F30" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_IAssetRegistry.xlsx
+++ b/doc/ue_IAssetRegistry.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29705054-48C3-4849-B05B-2ED28E1A931B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="文件夹下资源遍历" sheetId="3" r:id="rId3"/>
+    <sheet name="加载AssetRegistry.bin" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>virtual bool HasAssets(const FName PackagePath, const bool bRecursive = false) const = 0;</t>
   </si>
@@ -153,13 +153,38 @@
   </si>
   <si>
     <t>！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetRegistry.bin</t>
+  </si>
+  <si>
+    <t>FCookedAssetRegistryPreloader::Load里面加载该文件，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个文件比较大，都是文件列表简单的信息，可以认为都是字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>static class FCookedAssetRegistryPreloader</t>
+  </si>
+  <si>
+    <t>GCookedAssetRegistryPreloader</t>
+  </si>
+  <si>
+    <t>全局的类变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个内存能占多少？？！！！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -495,7 +520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -582,7 +607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE042B6-9F32-4305-9F4B-9B6BA1FBD4B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C11:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -654,10 +679,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF1A5CE-9982-44CB-81DB-2D7B92F8A56B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -758,4 +783,52 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="L8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>